--- a/Clase/Modelado de Dominio/Modelo enriquerido/Modelo Enriquecido Clase.xlsx
+++ b/Clase/Modelado de Dominio/Modelo enriquerido/Modelo Enriquecido Clase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Federico\U\Doo\RepositorioDOO\Clase\Modelado de Dominio\Modelo enriquerido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03C578C-5FAC-4096-9CED-5F8EDA0772F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655B760-7B97-4AD9-A40A-3CA12E08036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="642" firstSheet="1" activeTab="5" xr2:uid="{2834725D-A48D-4C52-8BCF-DC08B9D59C13}"/>
   </bookViews>
@@ -687,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,6 +751,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1048,11 +1054,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1062,9 +1065,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,110 +1073,119 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2108,24 +2117,24 @@
       <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2309,24 +2318,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="str">
@@ -2461,24 +2470,24 @@
       <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2816,11 +2825,11 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2834,10 +2843,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="60" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="12" t="str">
@@ -2846,35 +2855,35 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="12" t="str">
         <f>A10</f>
         <v>Mes</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="12" t="str">
         <f>A8</f>
         <v>Rubro</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="61" t="s">
         <v>93</v>
       </c>
@@ -2884,95 +2893,101 @@
       <c r="N19" s="62"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="52" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="52" t="s">
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="52" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="52" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="J23:N23"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A1:P1"/>
@@ -2989,12 +3004,6 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="J23:N23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{2DC67B9B-B890-4FF6-B022-F0B0C0F960D8}"/>
@@ -3097,24 +3106,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="str">
@@ -3165,24 +3174,24 @@
       <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3604,24 +3613,24 @@
       <c r="P3" s="50"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -3974,68 +3983,68 @@
         <f>'Objetos de Dominio'!$A$1&amp;":"</f>
         <v>Objeto de Dominio:</v>
       </c>
-      <c r="B2" s="91" t="str">
+      <c r="B2" s="66" t="str">
         <f>'Objetos de Dominio'!$A$2</f>
         <v>Tipo Rubro</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f>'Objetos de Dominio'!$B$1&amp;":"</f>
         <v>Descripcion:</v>
       </c>
-      <c r="B3" s="92" t="str">
+      <c r="B3" s="67" t="str">
         <f>'Objetos de Dominio'!$B$2</f>
         <v>Entidad que representa un tipo de rubo el cual corresponde a la categoria a la cual pertenece un rubro determinado o un compromiso financiero. Por ejemplo un tipo de rubro puede ser ingreso, el cual indica que los rubros categoriados con el, corresponden a dinero que la persona va recibir por diferentes razones: salarios, inversiones, ganancias, etc.</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -4332,11 +4341,11 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -4362,276 +4371,292 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57" t="s">
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="89" t="s">
+      <c r="I17" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89" t="s">
+      <c r="J17" s="69"/>
+      <c r="K17" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="66" t="s">
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="78" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="90" t="s">
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="66" t="s">
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="76" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="82" t="s">
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="68" t="s">
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="74" t="s">
+      <c r="I19" s="80"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="66" t="s">
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
     </row>
     <row r="20" spans="1:20" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74" t="s">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="66" t="s">
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="67"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="67"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
     </row>
     <row r="21" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
       <c r="H21" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="66" t="s">
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+      <c r="A22" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
       <c r="H22" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
     </row>
     <row r="23" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+      <c r="A23" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="89" t="s">
+      <c r="I23" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-      <c r="T23" s="67"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="77" t="s">
+      <c r="B26" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="69" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="B29" s="79" t="s">
+      <c r="B29" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="O22:T22"/>
+    <mergeCell ref="O23:T23"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O17:T17"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="O19:T19"/>
+    <mergeCell ref="O20:T20"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="D19:G20"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="O21:T21"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="B29:G29"/>
@@ -4648,27 +4673,11 @@
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="O17:T17"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="O19:T19"/>
-    <mergeCell ref="O20:T20"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="D19:G20"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="O21:T21"/>
-    <mergeCell ref="O22:T22"/>
-    <mergeCell ref="O23:T23"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -4879,24 +4888,24 @@
       <c r="P3" s="94"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
     </row>
     <row r="5" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -6222,10 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9475F279-376B-43E0-8640-C521441CD16A}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4:P4"/>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6555,11 +6562,11 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -6585,139 +6592,144 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="55" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55" t="s">
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" s="55"/>
+      <c r="Q14" s="97"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55" t="s">
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="J18:O18"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="J14:O14"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="J17:O17"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="A18:C18"/>
@@ -6728,16 +6740,11 @@
     <mergeCell ref="D15:I15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:I16"/>
-    <mergeCell ref="J18:O18"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="J14:O14"/>
-    <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al Inicio" xr:uid="{297A59A6-3D30-43EE-9724-79A94AF609C1}"/>
